--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Papers\ECMFA_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABFE284-BD1A-4612-AB6C-6DBFDF59A6EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0CD2DA1-E28F-4F79-93C6-82ADE2AA6D81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="17520" windowHeight="12600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="262">
   <si>
     <t>Vergleichskriterien/Features</t>
   </si>
@@ -808,6 +808,12 @@
   </si>
   <si>
     <t>ownedComment</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Parameter.type</t>
   </si>
 </sst>
 </file>
@@ -5322,8 +5328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -5454,7 +5460,9 @@
       <c r="C4" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="D4" s="45"/>
+      <c r="D4" s="45" t="s">
+        <v>229</v>
+      </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -5488,7 +5496,9 @@
       <c r="C5" s="32" t="s">
         <v>160</v>
       </c>
-      <c r="D5" s="45"/>
+      <c r="D5" s="45" t="s">
+        <v>260</v>
+      </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -7314,7 +7324,9 @@
       <c r="C56" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D56" s="45"/>
+      <c r="D56" s="45" t="s">
+        <v>261</v>
+      </c>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Papers\ECMFA_2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac138120\Documents\projects\dt_language_comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE728963-7989-4705-A588-11348DDE5232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28AF7E7-42BF-4825-A6D6-BAB7BF99478B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="17520" windowHeight="12600" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Concepts" sheetId="3" r:id="rId3"/>
     <sheet name="Comparison" sheetId="4" r:id="rId4"/>
     <sheet name="Comparison (marked)" sheetId="5" r:id="rId5"/>
-    <sheet name="Tabelle1" sheetId="6" r:id="rId6"/>
+    <sheet name="Übermenge" sheetId="7" r:id="rId6"/>
+    <sheet name="Tabelle1" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="739" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="302">
   <si>
     <t>Vergleichskriterien/Features</t>
   </si>
@@ -838,12 +839,111 @@
   <si>
     <t>&lt;Vorto&gt; fault</t>
   </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>displayName</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>metaversion</t>
+  </si>
+  <si>
+    <t>namespace</t>
+  </si>
+  <si>
+    <t>modelversion</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>extension</t>
+  </si>
+  <si>
+    <t>entities</t>
+  </si>
+  <si>
+    <t>enums</t>
+  </si>
+  <si>
+    <t>isExternalId</t>
+  </si>
+  <si>
+    <t>isStoredLocally</t>
+  </si>
+  <si>
+    <t>configuration</t>
+  </si>
+  <si>
+    <t>allowedValues</t>
+  </si>
+  <si>
+    <t>implementedBy</t>
+  </si>
+  <si>
+    <t>multiplicity=true</t>
+  </si>
+  <si>
+    <t>measurementUnit</t>
+  </si>
+  <si>
+    <t>mulplicity=false</t>
+  </si>
+  <si>
+    <t>readOnly</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>returnType</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>scope</t>
+  </si>
+  <si>
+    <t>parameterMetaVersion</t>
+  </si>
+  <si>
+    <t>parameterUnitOfMeasurement</t>
+  </si>
+  <si>
+    <t>maxMultiplicity</t>
+  </si>
+  <si>
+    <t>minMultiplicity</t>
+  </si>
+  <si>
+    <t>properties</t>
+  </si>
+  <si>
+    <t>target</t>
+  </si>
+  <si>
+    <t>writable</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Fault</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -916,6 +1016,13 @@
     <font>
       <sz val="10"/>
       <color rgb="FFFFC000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1236,7 +1343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1375,6 +1482,11 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4260,7 +4372,7 @@
   <dimension ref="A1:H994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4273,7 +4385,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="88" t="s">
         <v>265</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -5378,7 +5490,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -32994,8 +33106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92F89FA4-BE27-4BAF-9BD7-2B9568D23575}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -60400,11 +60512,1294 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81660679-4C16-4328-828C-2DD56627BD9C}">
+  <dimension ref="A1:E77"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="84" t="s">
+        <v>269</v>
+      </c>
+      <c r="E1" s="87" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="85" t="s">
+        <v>223</v>
+      </c>
+      <c r="E2" s="43" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="74" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="75" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="76" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="82" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="C4" s="76"/>
+      <c r="D4" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="E4" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="74" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="75" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5" s="86" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="45" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="58" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="E6" s="46" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="82" t="s">
+        <v>162</v>
+      </c>
+      <c r="B7" s="83" t="s">
+        <v>163</v>
+      </c>
+      <c r="C7" s="32"/>
+      <c r="D7" s="86" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" s="46" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="82" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" s="83" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="32"/>
+      <c r="D8" s="85" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="47" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="82" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" s="83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="86" t="s">
+        <v>274</v>
+      </c>
+      <c r="E9" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="32"/>
+      <c r="D10" s="85" t="s">
+        <v>275</v>
+      </c>
+      <c r="E10" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D11" s="86" t="s">
+        <v>258</v>
+      </c>
+      <c r="E11" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="74" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" s="75" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12" s="76" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="86" t="s">
+        <v>276</v>
+      </c>
+      <c r="E12" s="49" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="60"/>
+      <c r="B13" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="C13" s="32"/>
+      <c r="D13" s="86" t="s">
+        <v>277</v>
+      </c>
+      <c r="E13" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="60"/>
+      <c r="B14" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" s="32"/>
+      <c r="D14" s="86" t="s">
+        <v>278</v>
+      </c>
+      <c r="E14" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D15" s="87" t="s">
+        <v>299</v>
+      </c>
+      <c r="E15" s="50" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>300</v>
+      </c>
+      <c r="E16" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="77" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="78" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" s="79" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="62" t="s">
+        <v>161</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D19" s="85"/>
+      <c r="E19" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="56" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" s="87" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="51" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="74" t="s">
+        <v>176</v>
+      </c>
+      <c r="B21" s="75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="76" t="s">
+        <v>177</v>
+      </c>
+      <c r="D21" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="E21" s="49" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D22" s="85" t="s">
+        <v>279</v>
+      </c>
+      <c r="E22" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="E23" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="D24" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="E24" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="85" t="s">
+        <v>232</v>
+      </c>
+      <c r="E25" s="44" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="63" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="85" t="s">
+        <v>281</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="74" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="75" t="s">
+        <v>222</v>
+      </c>
+      <c r="C27" s="76" t="s">
+        <v>179</v>
+      </c>
+      <c r="D27" s="86" t="s">
+        <v>282</v>
+      </c>
+      <c r="E27" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="B28" s="83" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="E28" s="44" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="85" t="s">
+        <v>284</v>
+      </c>
+      <c r="E29" s="44" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="23"/>
+      <c r="B30" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="C30" s="33"/>
+      <c r="D30" s="85" t="s">
+        <v>286</v>
+      </c>
+      <c r="E30" s="44" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D31" s="85" t="s">
+        <v>276</v>
+      </c>
+      <c r="E31" s="44" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="57"/>
+      <c r="B32" s="28" t="s">
+        <v>239</v>
+      </c>
+      <c r="C32" s="32"/>
+      <c r="D32" s="85" t="s">
+        <v>287</v>
+      </c>
+      <c r="E32" s="44" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="74" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="80" t="s">
+        <v>238</v>
+      </c>
+      <c r="C33" s="76" t="s">
+        <v>180</v>
+      </c>
+      <c r="D33" s="85" t="s">
+        <v>285</v>
+      </c>
+      <c r="E33" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="74" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="75" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="76" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="86" t="s">
+        <v>271</v>
+      </c>
+      <c r="E34" s="72" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D35" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="E35" s="44" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="58" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C36" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="E36" s="44" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="E37" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="B38" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="85" t="s">
+        <v>273</v>
+      </c>
+      <c r="E38" s="50" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="65" t="s">
+        <v>187</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="E39" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D40" s="85" t="s">
+        <v>288</v>
+      </c>
+      <c r="E40" s="45" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="74" t="s">
+        <v>188</v>
+      </c>
+      <c r="B41" s="75" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="76"/>
+      <c r="D41" s="85" t="s">
+        <v>289</v>
+      </c>
+      <c r="E41" s="44" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="74" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" s="75" t="s">
+        <v>138</v>
+      </c>
+      <c r="D42" s="85" t="s">
+        <v>290</v>
+      </c>
+      <c r="E42" s="44" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="74"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="76" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" s="85"/>
+      <c r="E43" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B44" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="D44" s="85" t="s">
+        <v>283</v>
+      </c>
+      <c r="E44" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>191</v>
+      </c>
+      <c r="C45" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" s="85" t="s">
+        <v>262</v>
+      </c>
+      <c r="E45" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C46" s="32" t="s">
+        <v>192</v>
+      </c>
+      <c r="D46" s="85" t="s">
+        <v>291</v>
+      </c>
+      <c r="E46" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="74" t="s">
+        <v>193</v>
+      </c>
+      <c r="B47" s="75" t="s">
+        <v>194</v>
+      </c>
+      <c r="C47" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="D47" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="E47" s="44" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="58" t="s">
+        <v>196</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="E48" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="58" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="E49" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="58" t="s">
+        <v>198</v>
+      </c>
+      <c r="B50" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="E50" s="44" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="85" t="s">
+        <v>263</v>
+      </c>
+      <c r="E51" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="C52" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D52" s="85" t="s">
+        <v>276</v>
+      </c>
+      <c r="E52" s="44" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="67" t="s">
+        <v>247</v>
+      </c>
+      <c r="B53" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C53" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="E53" s="48" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="67" t="s">
+        <v>248</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C54" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D54" s="85" t="s">
+        <v>273</v>
+      </c>
+      <c r="E54" s="44" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="67" t="s">
+        <v>249</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D55" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="E55" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="B56" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" s="85" t="s">
+        <v>292</v>
+      </c>
+      <c r="E56" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="58" t="s">
+        <v>200</v>
+      </c>
+      <c r="B57" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D57" s="85" t="s">
+        <v>293</v>
+      </c>
+      <c r="E57" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="D58" s="85" t="s">
+        <v>224</v>
+      </c>
+      <c r="E58" s="44" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C59" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" s="85" t="s">
+        <v>294</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="22" t="s">
+        <v>202</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D60" s="85" t="s">
+        <v>295</v>
+      </c>
+      <c r="E60" s="44" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="22" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C61" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="85" t="s">
+        <v>296</v>
+      </c>
+      <c r="E61" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="22" t="s">
+        <v>204</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>205</v>
+      </c>
+      <c r="D62" s="85" t="s">
+        <v>297</v>
+      </c>
+      <c r="E62" s="44" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D63" s="85" t="s">
+        <v>298</v>
+      </c>
+      <c r="E63" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C64" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="D64" s="85" t="s">
+        <v>271</v>
+      </c>
+      <c r="E64" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="24" t="s">
+        <v>207</v>
+      </c>
+      <c r="B65" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D65" s="85" t="s">
+        <v>272</v>
+      </c>
+      <c r="E65" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B66" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C66" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D66" s="85" t="s">
+        <v>273</v>
+      </c>
+      <c r="E66" s="44" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="B67" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C67" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D67" s="85" t="s">
+        <v>274</v>
+      </c>
+      <c r="E67" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="B68" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C68" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" s="85" t="s">
+        <v>225</v>
+      </c>
+      <c r="E68" s="44" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="22" t="s">
+        <v>211</v>
+      </c>
+      <c r="B69" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C69" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D69" s="85" t="s">
+        <v>270</v>
+      </c>
+      <c r="E69" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B70" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C70" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D70" s="85" t="s">
+        <v>226</v>
+      </c>
+      <c r="E70" s="44" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="B71" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C71" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D71" s="85" t="s">
+        <v>255</v>
+      </c>
+      <c r="E71" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B72" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D72" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="E72" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B73" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D73" s="69" t="s">
+        <v>214</v>
+      </c>
+      <c r="E73" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B74" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D74" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="E74" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B75" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="C75" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D75" s="69" t="s">
+        <v>216</v>
+      </c>
+      <c r="E75" s="52" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B76" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="D76" s="69" t="s">
+        <v>217</v>
+      </c>
+      <c r="E76" s="53" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="70"/>
+      <c r="B77" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="C77" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D77" s="71" t="s">
+        <v>218</v>
+      </c>
+      <c r="E77" s="53" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A915A10-08B0-46CC-B295-8FEB8D94923F}">
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A1:A24"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac138120\Documents\projects\dt_language_comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F28AF7E7-42BF-4825-A6D6-BAB7BF99478B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6453A7-69DF-4672-AE9C-7E525C266E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="306">
   <si>
     <t>Vergleichskriterien/Features</t>
   </si>
@@ -849,13 +849,7 @@
     <t>type</t>
   </si>
   <si>
-    <t>metaversion</t>
-  </si>
-  <si>
     <t>namespace</t>
-  </si>
-  <si>
-    <t>modelversion</t>
   </si>
   <si>
     <t>category</t>
@@ -909,9 +903,6 @@
     <t>scope</t>
   </si>
   <si>
-    <t>parameterMetaVersion</t>
-  </si>
-  <si>
     <t>parameterUnitOfMeasurement</t>
   </si>
   <si>
@@ -937,6 +928,27 @@
   </si>
   <si>
     <t>CD</t>
+  </si>
+  <si>
+    <t>requiredProperties</t>
+  </si>
+  <si>
+    <t>«DTDL»«Vortolang» displayName</t>
+  </si>
+  <si>
+    <t>languageversion</t>
+  </si>
+  <si>
+    <t>«DTDL» «Vorto» version</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>parameterLanguageversion</t>
+  </si>
+  <si>
+    <t>relationshipType</t>
   </si>
 </sst>
 </file>
@@ -4372,7 +4384,7 @@
   <dimension ref="A1:H994"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -60515,8 +60527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81660679-4C16-4328-828C-2DD56627BD9C}">
   <dimension ref="A1:E77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -60524,6 +60536,7 @@
     <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -60540,7 +60553,7 @@
         <v>269</v>
       </c>
       <c r="E1" s="87" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -60586,7 +60599,7 @@
       </c>
       <c r="C4" s="76"/>
       <c r="D4" s="85" t="s">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="E4" s="48" t="s">
         <v>161</v>
@@ -60635,7 +60648,7 @@
       </c>
       <c r="C7" s="32"/>
       <c r="D7" s="86" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="E7" s="46" t="s">
         <v>227</v>
@@ -60650,7 +60663,7 @@
       </c>
       <c r="C8" s="32"/>
       <c r="D8" s="85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E8" s="47" t="s">
         <v>228</v>
@@ -60665,7 +60678,7 @@
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="86" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="E9" s="48" t="s">
         <v>161</v>
@@ -60680,7 +60693,7 @@
       </c>
       <c r="C10" s="32"/>
       <c r="D10" s="85" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E10" s="48" t="s">
         <v>161</v>
@@ -60714,7 +60727,7 @@
         <v>85</v>
       </c>
       <c r="D12" s="86" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E12" s="49" t="s">
         <v>242</v>
@@ -60727,7 +60740,7 @@
       </c>
       <c r="C13" s="32"/>
       <c r="D13" s="86" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E13" s="48" t="s">
         <v>161</v>
@@ -60740,7 +60753,7 @@
       </c>
       <c r="C14" s="32"/>
       <c r="D14" s="86" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E14" s="48" t="s">
         <v>161</v>
@@ -60757,7 +60770,7 @@
         <v>161</v>
       </c>
       <c r="D15" s="87" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E15" s="50" t="s">
         <v>230</v>
@@ -60774,7 +60787,7 @@
         <v>161</v>
       </c>
       <c r="D16" s="87" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="E16" s="48" t="s">
         <v>161</v>
@@ -60868,7 +60881,7 @@
         <v>106</v>
       </c>
       <c r="D22" s="85" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E22" s="48" t="s">
         <v>161</v>
@@ -60885,7 +60898,7 @@
         <v>109</v>
       </c>
       <c r="D23" s="85" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E23" s="48" t="s">
         <v>161</v>
@@ -60926,17 +60939,17 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="63" t="s">
-        <v>170</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>170</v>
+      <c r="A26" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>161</v>
       </c>
       <c r="C26" s="31" t="s">
         <v>121</v>
       </c>
       <c r="D26" s="85" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E26" s="48" t="s">
         <v>161</v>
@@ -60953,7 +60966,7 @@
         <v>179</v>
       </c>
       <c r="D27" s="86" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E27" s="48" t="s">
         <v>161</v>
@@ -60987,7 +61000,7 @@
         <v>161</v>
       </c>
       <c r="D29" s="85" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E29" s="44" t="s">
         <v>233</v>
@@ -61000,7 +61013,7 @@
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="85" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E30" s="44" t="s">
         <v>236</v>
@@ -61017,7 +61030,7 @@
         <v>161</v>
       </c>
       <c r="D31" s="85" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E31" s="44" t="s">
         <v>237</v>
@@ -61030,7 +61043,7 @@
       </c>
       <c r="C32" s="32"/>
       <c r="D32" s="85" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E32" s="44" t="s">
         <v>240</v>
@@ -61047,7 +61060,7 @@
         <v>180</v>
       </c>
       <c r="D33" s="85" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E33" s="48" t="s">
         <v>161</v>
@@ -61114,8 +61127,8 @@
       <c r="C37" s="33" t="s">
         <v>161</v>
       </c>
-      <c r="D37" s="85" t="s">
-        <v>272</v>
+      <c r="D37" s="86" t="s">
+        <v>301</v>
       </c>
       <c r="E37" s="48" t="s">
         <v>161</v>
@@ -61132,7 +61145,7 @@
         <v>161</v>
       </c>
       <c r="D38" s="85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E38" s="50" t="s">
         <v>241</v>
@@ -61149,7 +61162,7 @@
         <v>161</v>
       </c>
       <c r="D39" s="85" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="E39" s="48" t="s">
         <v>161</v>
@@ -61166,7 +61179,7 @@
         <v>88</v>
       </c>
       <c r="D40" s="85" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E40" s="45" t="s">
         <v>25</v>
@@ -61181,7 +61194,7 @@
       </c>
       <c r="C41" s="76"/>
       <c r="D41" s="85" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E41" s="44" t="s">
         <v>245</v>
@@ -61195,7 +61208,7 @@
         <v>138</v>
       </c>
       <c r="D42" s="85" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E42" s="44" t="s">
         <v>246</v>
@@ -61207,7 +61220,9 @@
       <c r="C43" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="85"/>
+      <c r="D43" s="85" t="s">
+        <v>299</v>
+      </c>
       <c r="E43" s="52" t="s">
         <v>161</v>
       </c>
@@ -61223,7 +61238,7 @@
         <v>190</v>
       </c>
       <c r="D44" s="85" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E44" s="52" t="s">
         <v>161</v>
@@ -61257,7 +61272,7 @@
         <v>192</v>
       </c>
       <c r="D46" s="85" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="E46" s="48" t="s">
         <v>161</v>
@@ -61359,7 +61374,7 @@
         <v>161</v>
       </c>
       <c r="D52" s="85" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E52" s="44" t="s">
         <v>244</v>
@@ -61376,7 +61391,7 @@
         <v>161</v>
       </c>
       <c r="D53" s="85" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="E53" s="48" t="s">
         <v>161</v>
@@ -61393,7 +61408,7 @@
         <v>161</v>
       </c>
       <c r="D54" s="85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E54" s="44" t="s">
         <v>250</v>
@@ -61410,7 +61425,7 @@
         <v>161</v>
       </c>
       <c r="D55" s="85" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="E55" s="52" t="s">
         <v>161</v>
@@ -61427,7 +61442,7 @@
         <v>161</v>
       </c>
       <c r="D56" s="85" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="E56" s="52" t="s">
         <v>161</v>
@@ -61444,7 +61459,7 @@
         <v>161</v>
       </c>
       <c r="D57" s="85" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E57" s="52" t="s">
         <v>161</v>
@@ -61478,7 +61493,7 @@
         <v>161</v>
       </c>
       <c r="D59" s="85" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E59" s="44" t="s">
         <v>252</v>
@@ -61495,7 +61510,7 @@
         <v>161</v>
       </c>
       <c r="D60" s="85" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E60" s="44" t="s">
         <v>251</v>
@@ -61512,7 +61527,7 @@
         <v>161</v>
       </c>
       <c r="D61" s="85" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E61" s="52" t="s">
         <v>161</v>
@@ -61529,7 +61544,7 @@
         <v>205</v>
       </c>
       <c r="D62" s="85" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E62" s="44" t="s">
         <v>253</v>
@@ -61546,7 +61561,7 @@
         <v>161</v>
       </c>
       <c r="D63" s="85" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="E63" s="52" t="s">
         <v>161</v>
@@ -61563,7 +61578,7 @@
         <v>206</v>
       </c>
       <c r="D64" s="85" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="E64" s="52" t="s">
         <v>161</v>
@@ -61580,7 +61595,7 @@
         <v>161</v>
       </c>
       <c r="D65" s="85" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="E65" s="52" t="s">
         <v>161</v>
@@ -61597,7 +61612,7 @@
         <v>161</v>
       </c>
       <c r="D66" s="85" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E66" s="44" t="s">
         <v>250</v>
@@ -61614,7 +61629,7 @@
         <v>161</v>
       </c>
       <c r="D67" s="85" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="E67" s="52" t="s">
         <v>161</v>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac138120\Documents\projects\dt_language_comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6453A7-69DF-4672-AE9C-7E525C266E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E54C4F5-FFD3-4FA4-8FB1-639404FEFADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="338">
   <si>
     <t>Vergleichskriterien/Features</t>
   </si>
@@ -840,9 +840,6 @@
     <t>&lt;Vorto&gt; fault</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>displayName</t>
   </si>
   <si>
@@ -927,19 +924,10 @@
     <t>Fault</t>
   </si>
   <si>
-    <t>CD</t>
-  </si>
-  <si>
     <t>requiredProperties</t>
   </si>
   <si>
-    <t>«DTDL»«Vortolang» displayName</t>
-  </si>
-  <si>
     <t>languageversion</t>
-  </si>
-  <si>
-    <t>«DTDL» «Vorto» version</t>
   </si>
   <si>
     <t>version</t>
@@ -950,12 +938,120 @@
   <si>
     <t>relationshipType</t>
   </si>
+  <si>
+    <t>DT-MM Concepts</t>
+  </si>
+  <si>
+    <t>UML CD</t>
+  </si>
+  <si>
+    <t>DTDL-MM</t>
+  </si>
+  <si>
+    <t>VL-MM</t>
+  </si>
+  <si>
+    <t>TM-MM</t>
+  </si>
+  <si>
+    <t>Namespace</t>
+  </si>
+  <si>
+    <t>vortolang</t>
+  </si>
+  <si>
+    <t>tag</t>
+  </si>
+  <si>
+    <t>extendsFrom</t>
+  </si>
+  <si>
+    <t>superType</t>
+  </si>
+  <si>
+    <t>writable=false</t>
+  </si>
+  <si>
+    <t>readOnly=false</t>
+  </si>
+  <si>
+    <t>FunctionBlock.event</t>
+  </si>
+  <si>
+    <t>isTimeSeries = true</t>
+  </si>
+  <si>
+    <t>presence.mandatory</t>
+  </si>
+  <si>
+    <t>isStoredExternally</t>
+  </si>
+  <si>
+    <t>isRequiredInEntity</t>
+  </si>
+  <si>
+    <t>DataType.allowedValues</t>
+  </si>
+  <si>
+    <t>schema</t>
+  </si>
+  <si>
+    <t>multiplicity=false</t>
+  </si>
+  <si>
+    <t>extension(bool)</t>
+  </si>
+  <si>
+    <t>propertyAttribute.readable=true; writable=false</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>DataType.unitOfMeasure</t>
+  </si>
+  <si>
+    <t>DataType.type</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>request</t>
+  </si>
+  <si>
+    <t>returnType(ReturnType)</t>
+  </si>
+  <si>
+    <t>params(Param*)</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>breakable(bool)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTMI.version </t>
+  </si>
+  <si>
+    <t>MemberEnd.upper</t>
+  </si>
+  <si>
+    <t>MemberEnd.lower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">targetComponentTypeId </t>
+  </si>
+  <si>
+    <t>DataType.Relationship</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1038,6 +1134,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1059,7 +1162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1351,11 +1454,108 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1494,11 +1694,65 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -4397,7 +4651,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="85" t="s">
         <v>265</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -60525,1283 +60779,1368 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81660679-4C16-4328-828C-2DD56627BD9C}">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="53" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="84" t="s">
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="112" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="113" t="s">
+        <v>303</v>
+      </c>
+      <c r="C1" s="114" t="s">
+        <v>304</v>
+      </c>
+      <c r="D1" s="114" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="114" t="s">
+        <v>306</v>
+      </c>
+      <c r="F1" s="86"/>
+    </row>
+    <row r="2" spans="1:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="109" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="110" t="s">
+        <v>223</v>
+      </c>
+      <c r="C2" s="111" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="111" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="111" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="86"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>225</v>
+      </c>
+      <c r="D3" s="87" t="s">
+        <v>225</v>
+      </c>
+      <c r="E3" s="87" t="s">
+        <v>225</v>
+      </c>
+      <c r="F3" s="86"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="E1" s="87" t="s">
+      <c r="B4" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>269</v>
+      </c>
+      <c r="D4" s="87" t="s">
+        <v>269</v>
+      </c>
+      <c r="E4" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="86"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="84" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5" s="98" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>255</v>
+      </c>
+      <c r="D5" s="87" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="87" t="s">
+        <v>255</v>
+      </c>
+      <c r="F5" s="86"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="86" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="100" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" s="87" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="87" t="s">
+        <v>309</v>
+      </c>
+      <c r="F6" s="86"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="84" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="85" t="s">
-        <v>223</v>
-      </c>
-      <c r="E2" s="43" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="74" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="75" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="76" t="s">
-        <v>79</v>
-      </c>
-      <c r="D3" s="86" t="s">
+      <c r="B7" s="100" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="87" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="86"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="86" t="s">
+        <v>271</v>
+      </c>
+      <c r="B8" s="100" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="E8" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="86"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="84" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="87" t="s">
+        <v>128</v>
+      </c>
+      <c r="D9" s="87" t="s">
+        <v>299</v>
+      </c>
+      <c r="E9" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="86"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="86" t="s">
+        <v>272</v>
+      </c>
+      <c r="B10" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="87" t="s">
+        <v>272</v>
+      </c>
+      <c r="E10" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="86"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="84" t="s">
+        <v>258</v>
+      </c>
+      <c r="B11" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="F11" s="86"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="84" t="s">
+        <v>273</v>
+      </c>
+      <c r="B12" s="100" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="87" t="s">
+        <v>267</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>311</v>
+      </c>
+      <c r="E12" s="87" t="s">
+        <v>310</v>
+      </c>
+      <c r="F12" s="86"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="84" t="s">
+        <v>274</v>
+      </c>
+      <c r="B13" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="87"/>
+      <c r="D13" s="87" t="s">
+        <v>274</v>
+      </c>
+      <c r="E13" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="86"/>
+    </row>
+    <row r="14" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="106" t="s">
+        <v>275</v>
+      </c>
+      <c r="B14" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92" t="s">
+        <v>275</v>
+      </c>
+      <c r="E14" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="86"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="107" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="102" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="95" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" s="95" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" s="86"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="108" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" s="103" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="87" t="s">
+        <v>312</v>
+      </c>
+      <c r="D16" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="E16" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="86"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="84" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="87" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="86"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="84" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="103" t="s">
+        <v>313</v>
+      </c>
+      <c r="C18" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="87" t="s">
+        <v>314</v>
+      </c>
+      <c r="E18" s="87" t="s">
+        <v>315</v>
+      </c>
+      <c r="F18" s="86"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="84" t="s">
         <v>225</v>
       </c>
-      <c r="E3" s="44" t="s">
+      <c r="B19" s="100" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="82" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="85" t="s">
+      <c r="C19" s="87" t="s">
+        <v>225</v>
+      </c>
+      <c r="D19" s="87" t="s">
+        <v>225</v>
+      </c>
+      <c r="E19" s="87" t="s">
+        <v>225</v>
+      </c>
+      <c r="F19" s="86"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="86" t="s">
+        <v>276</v>
+      </c>
+      <c r="B20" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="89" t="s">
+        <v>276</v>
+      </c>
+      <c r="F20" s="86"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="86" t="s">
+        <v>277</v>
+      </c>
+      <c r="B21" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="89" t="s">
+        <v>317</v>
+      </c>
+      <c r="F21" s="86"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="86" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="87" t="s">
+        <v>316</v>
+      </c>
+      <c r="E22" s="87" t="s">
+        <v>318</v>
+      </c>
+      <c r="F22" s="86"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="86" t="s">
+        <v>232</v>
+      </c>
+      <c r="B23" s="98" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="87" t="s">
+        <v>232</v>
+      </c>
+      <c r="F23" s="86"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="86" t="s">
+        <v>278</v>
+      </c>
+      <c r="B24" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24" s="87" t="s">
+        <v>278</v>
+      </c>
+      <c r="F24" s="86"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="84" t="s">
+        <v>279</v>
+      </c>
+      <c r="B25" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="87" t="s">
+        <v>320</v>
+      </c>
+      <c r="D25" s="87" t="s">
+        <v>222</v>
+      </c>
+      <c r="E25" s="87" t="s">
+        <v>319</v>
+      </c>
+      <c r="F25" s="86"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="86" t="s">
+        <v>255</v>
+      </c>
+      <c r="B26" s="98" t="s">
+        <v>226</v>
+      </c>
+      <c r="C26" s="87" t="s">
+        <v>255</v>
+      </c>
+      <c r="D26" s="87" t="s">
+        <v>255</v>
+      </c>
+      <c r="E26" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="86"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="86" t="s">
+        <v>281</v>
+      </c>
+      <c r="B27" s="98" t="s">
+        <v>233</v>
+      </c>
+      <c r="C27" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="87" t="s">
+        <v>281</v>
+      </c>
+      <c r="E27" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="86"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="86" t="s">
+        <v>283</v>
+      </c>
+      <c r="B28" s="98" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="87" t="s">
+        <v>321</v>
+      </c>
+      <c r="E28" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="86"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="86" t="s">
+        <v>273</v>
+      </c>
+      <c r="B29" s="98" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="87" t="s">
+        <v>322</v>
+      </c>
+      <c r="E29" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="86"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="86" t="s">
+        <v>284</v>
+      </c>
+      <c r="B30" s="98" t="s">
+        <v>240</v>
+      </c>
+      <c r="C30" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="87" t="s">
+        <v>323</v>
+      </c>
+      <c r="E30" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="86"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="86" t="s">
+        <v>282</v>
+      </c>
+      <c r="B31" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="87" t="s">
+        <v>324</v>
+      </c>
+      <c r="D31" s="88" t="s">
+        <v>238</v>
+      </c>
+      <c r="E31" s="87" t="s">
+        <v>325</v>
+      </c>
+      <c r="F31" s="86"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="84" t="s">
+        <v>270</v>
+      </c>
+      <c r="B32" s="103" t="s">
+        <v>257</v>
+      </c>
+      <c r="C32" s="87" t="s">
+        <v>270</v>
+      </c>
+      <c r="D32" s="87" t="s">
+        <v>270</v>
+      </c>
+      <c r="E32" s="87" t="s">
+        <v>326</v>
+      </c>
+      <c r="F32" s="86"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="86" t="s">
+        <v>269</v>
+      </c>
+      <c r="B33" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C33" s="87" t="s">
+        <v>269</v>
+      </c>
+      <c r="D33" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E33" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" s="86"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="86" t="s">
+        <v>226</v>
+      </c>
+      <c r="B34" s="98" t="s">
+        <v>226</v>
+      </c>
+      <c r="C34" s="87" t="s">
+        <v>226</v>
+      </c>
+      <c r="D34" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" s="86"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="84" t="s">
+        <v>298</v>
+      </c>
+      <c r="B35" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="87" t="s">
+        <v>308</v>
+      </c>
+      <c r="E35" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="86"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" s="86" t="s">
+        <v>271</v>
+      </c>
+      <c r="B36" s="103" t="s">
+        <v>241</v>
+      </c>
+      <c r="C36" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="D36" s="87" t="s">
+        <v>271</v>
+      </c>
+      <c r="E36" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="86"/>
+    </row>
+    <row r="37" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="94" t="s">
+        <v>299</v>
+      </c>
+      <c r="B37" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="92" t="s">
+        <v>128</v>
+      </c>
+      <c r="D37" s="92" t="s">
+        <v>299</v>
+      </c>
+      <c r="E37" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" s="86"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="97" t="s">
+        <v>285</v>
+      </c>
+      <c r="B38" s="104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C38" s="95" t="s">
+        <v>98</v>
+      </c>
+      <c r="D38" s="95" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="95" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="86"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="86" t="s">
+        <v>286</v>
+      </c>
+      <c r="B39" s="98" t="s">
+        <v>245</v>
+      </c>
+      <c r="C39" s="87" t="s">
+        <v>327</v>
+      </c>
+      <c r="D39" s="87" t="s">
+        <v>329</v>
+      </c>
+      <c r="E39" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="86"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="86" t="s">
+        <v>287</v>
+      </c>
+      <c r="B40" s="98" t="s">
+        <v>246</v>
+      </c>
+      <c r="C40" s="87" t="s">
+        <v>328</v>
+      </c>
+      <c r="D40" s="87" t="s">
+        <v>330</v>
+      </c>
+      <c r="E40" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="86"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" s="86" t="s">
+        <v>297</v>
+      </c>
+      <c r="B41" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="87" t="s">
+        <v>297</v>
+      </c>
+      <c r="F41" s="86"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" s="86" t="s">
+        <v>280</v>
+      </c>
+      <c r="B42" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E42" s="87" t="s">
+        <v>280</v>
+      </c>
+      <c r="F42" s="86"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="86" t="s">
+        <v>262</v>
+      </c>
+      <c r="B43" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="87" t="s">
+        <v>316</v>
+      </c>
+      <c r="E43" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="86"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" s="86" t="s">
+        <v>288</v>
+      </c>
+      <c r="B44" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E44" s="87" t="s">
+        <v>331</v>
+      </c>
+      <c r="F44" s="86"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" s="84" t="s">
+        <v>225</v>
+      </c>
+      <c r="B45" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C45" s="87" t="s">
+        <v>225</v>
+      </c>
+      <c r="D45" s="87" t="s">
+        <v>225</v>
+      </c>
+      <c r="E45" s="87" t="s">
+        <v>225</v>
+      </c>
+      <c r="F45" s="86"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" s="86" t="s">
+        <v>255</v>
+      </c>
+      <c r="B46" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="87" t="s">
+        <v>270</v>
+      </c>
+      <c r="D46" s="87" t="s">
+        <v>255</v>
+      </c>
+      <c r="E46" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="86"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" s="86" t="s">
+        <v>269</v>
+      </c>
+      <c r="B47" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="87" t="s">
+        <v>269</v>
+      </c>
+      <c r="D47" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="86"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" s="86" t="s">
+        <v>226</v>
+      </c>
+      <c r="B48" s="98" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" s="87" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E48" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="86"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="86" t="s">
+        <v>263</v>
+      </c>
+      <c r="B49" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" s="87" t="s">
+        <v>332</v>
+      </c>
+      <c r="E49" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="86"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" s="86" t="s">
+        <v>273</v>
+      </c>
+      <c r="B50" s="98" t="s">
+        <v>244</v>
+      </c>
+      <c r="C50" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="87" t="s">
+        <v>273</v>
+      </c>
+      <c r="E50" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="86"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51" s="86" t="s">
+        <v>298</v>
+      </c>
+      <c r="B51" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="87" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E51" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="86"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52" s="86" t="s">
+        <v>271</v>
+      </c>
+      <c r="B52" s="98" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="87" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E52" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="86"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="86" t="s">
+        <v>299</v>
+      </c>
+      <c r="B53" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="87" t="s">
+        <v>333</v>
+      </c>
+      <c r="D53" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E53" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="86"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="86" t="s">
         <v>300</v>
       </c>
-      <c r="E4" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="74" t="s">
-        <v>157</v>
-      </c>
-      <c r="B5" s="75" t="s">
-        <v>158</v>
-      </c>
-      <c r="C5" s="76" t="s">
-        <v>159</v>
-      </c>
-      <c r="D5" s="86" t="s">
+      <c r="B54" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="86"/>
+    </row>
+    <row r="55" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="94" t="s">
+        <v>289</v>
+      </c>
+      <c r="B55" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="92" t="s">
+        <v>200</v>
+      </c>
+      <c r="D55" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E55" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="86"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="97" t="s">
+        <v>224</v>
+      </c>
+      <c r="B56" s="104" t="s">
+        <v>224</v>
+      </c>
+      <c r="C56" s="95" t="s">
+        <v>89</v>
+      </c>
+      <c r="D56" s="96" t="s">
+        <v>23</v>
+      </c>
+      <c r="E56" s="97" t="s">
+        <v>337</v>
+      </c>
+      <c r="F56" s="86"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="86" t="s">
+        <v>290</v>
+      </c>
+      <c r="B57" s="98" t="s">
+        <v>334</v>
+      </c>
+      <c r="C57" s="86" t="s">
+        <v>290</v>
+      </c>
+      <c r="D57" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="86"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="86" t="s">
+        <v>291</v>
+      </c>
+      <c r="B58" s="98" t="s">
+        <v>335</v>
+      </c>
+      <c r="C58" s="86" t="s">
+        <v>291</v>
+      </c>
+      <c r="D58" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E58" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="86"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A59" s="86" t="s">
+        <v>292</v>
+      </c>
+      <c r="B59" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="86" t="s">
+        <v>292</v>
+      </c>
+      <c r="D59" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E59" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="86"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A60" s="86" t="s">
+        <v>293</v>
+      </c>
+      <c r="B60" s="98" t="s">
+        <v>253</v>
+      </c>
+      <c r="C60" s="86" t="s">
+        <v>293</v>
+      </c>
+      <c r="D60" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E60" s="86" t="s">
+        <v>336</v>
+      </c>
+      <c r="F60" s="86"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A61" s="86" t="s">
+        <v>294</v>
+      </c>
+      <c r="B61" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="86" t="s">
+        <v>294</v>
+      </c>
+      <c r="D61" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E61" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" s="86"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A62" s="86" t="s">
+        <v>301</v>
+      </c>
+      <c r="B62" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E62" s="86" t="s">
+        <v>301</v>
+      </c>
+      <c r="F62" s="86"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A63" s="86" t="s">
+        <v>298</v>
+      </c>
+      <c r="B63" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="86" t="s">
+        <v>124</v>
+      </c>
+      <c r="D63" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E63" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="86"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="86" t="s">
+        <v>271</v>
+      </c>
+      <c r="B64" s="98" t="s">
+        <v>250</v>
+      </c>
+      <c r="C64" s="86" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E64" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="86"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="86" t="s">
+        <v>299</v>
+      </c>
+      <c r="B65" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="86" t="s">
+        <v>128</v>
+      </c>
+      <c r="D65" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E65" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="86"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="B66" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C66" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="D66" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E66" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="86"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="86" t="s">
+        <v>269</v>
+      </c>
+      <c r="B67" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="86" t="s">
+        <v>269</v>
+      </c>
+      <c r="D67" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E67" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="86"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="86" t="s">
+        <v>226</v>
+      </c>
+      <c r="B68" s="98" t="s">
+        <v>254</v>
+      </c>
+      <c r="C68" s="86" t="s">
+        <v>226</v>
+      </c>
+      <c r="D68" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E68" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F68" s="86"/>
+    </row>
+    <row r="69" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="94" t="s">
         <v>255</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="B69" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="94" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="32" t="s">
-        <v>156</v>
-      </c>
-      <c r="D6" s="85" t="s">
-        <v>226</v>
-      </c>
-      <c r="E6" s="46" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="82" t="s">
-        <v>162</v>
-      </c>
-      <c r="B7" s="83" t="s">
-        <v>163</v>
-      </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="86" t="s">
-        <v>301</v>
-      </c>
-      <c r="E7" s="46" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="82" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="83" t="s">
-        <v>165</v>
-      </c>
-      <c r="C8" s="32"/>
-      <c r="D8" s="85" t="s">
-        <v>272</v>
-      </c>
-      <c r="E8" s="47" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="82" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" s="83" t="s">
-        <v>167</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="86" t="s">
-        <v>302</v>
-      </c>
-      <c r="E9" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>168</v>
-      </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="85" t="s">
-        <v>273</v>
-      </c>
-      <c r="E10" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="86" t="s">
-        <v>258</v>
-      </c>
-      <c r="E11" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="74" t="s">
-        <v>169</v>
-      </c>
-      <c r="B12" s="75" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12" s="76" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="86" t="s">
-        <v>274</v>
-      </c>
-      <c r="E12" s="49" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="60"/>
-      <c r="B13" s="32" t="s">
-        <v>171</v>
-      </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="86" t="s">
-        <v>275</v>
-      </c>
-      <c r="E13" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" s="60"/>
-      <c r="B14" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="86" t="s">
-        <v>276</v>
-      </c>
-      <c r="E14" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="57" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D15" s="87" t="s">
-        <v>296</v>
-      </c>
-      <c r="E15" s="50" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="C16" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D16" s="87" t="s">
-        <v>297</v>
-      </c>
-      <c r="E16" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="78" t="s">
-        <v>117</v>
-      </c>
-      <c r="C17" s="79" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="87" t="s">
-        <v>61</v>
-      </c>
-      <c r="E18" s="50" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="62" t="s">
-        <v>161</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="D19" s="85"/>
-      <c r="E19" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="D20" s="87" t="s">
-        <v>19</v>
-      </c>
-      <c r="E20" s="51" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="74" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="76" t="s">
-        <v>177</v>
-      </c>
-      <c r="D21" s="86" t="s">
-        <v>225</v>
-      </c>
-      <c r="E21" s="49" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D22" s="85" t="s">
-        <v>277</v>
-      </c>
-      <c r="E22" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D23" s="85" t="s">
-        <v>278</v>
-      </c>
-      <c r="E23" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>178</v>
-      </c>
-      <c r="C24" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="D24" s="85" t="s">
-        <v>262</v>
-      </c>
-      <c r="E24" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="D25" s="85" t="s">
-        <v>232</v>
-      </c>
-      <c r="E25" s="44" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="C26" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="D26" s="85" t="s">
-        <v>279</v>
-      </c>
-      <c r="E26" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="74" t="s">
-        <v>86</v>
-      </c>
-      <c r="B27" s="75" t="s">
-        <v>222</v>
-      </c>
-      <c r="C27" s="76" t="s">
-        <v>179</v>
-      </c>
-      <c r="D27" s="86" t="s">
-        <v>280</v>
-      </c>
-      <c r="E27" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="82" t="s">
-        <v>141</v>
-      </c>
-      <c r="B28" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="85" t="s">
-        <v>255</v>
-      </c>
-      <c r="E28" s="44" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>234</v>
-      </c>
-      <c r="C29" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D29" s="85" t="s">
-        <v>282</v>
-      </c>
-      <c r="E29" s="44" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="23"/>
-      <c r="B30" s="28" t="s">
-        <v>235</v>
-      </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="85" t="s">
-        <v>284</v>
-      </c>
-      <c r="E30" s="44" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C31" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D31" s="85" t="s">
-        <v>274</v>
-      </c>
-      <c r="E31" s="44" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="57"/>
-      <c r="B32" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="D32" s="85" t="s">
-        <v>285</v>
-      </c>
-      <c r="E32" s="44" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" s="74" t="s">
-        <v>80</v>
-      </c>
-      <c r="B33" s="80" t="s">
-        <v>238</v>
-      </c>
-      <c r="C33" s="76" t="s">
-        <v>180</v>
-      </c>
-      <c r="D33" s="85" t="s">
-        <v>283</v>
-      </c>
-      <c r="E33" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" s="74" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="75" t="s">
-        <v>181</v>
-      </c>
-      <c r="C34" s="76" t="s">
-        <v>182</v>
-      </c>
-      <c r="D34" s="86" t="s">
-        <v>271</v>
-      </c>
-      <c r="E34" s="72" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="B35" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D35" s="85" t="s">
-        <v>270</v>
-      </c>
-      <c r="E35" s="44" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="B36" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D36" s="85" t="s">
-        <v>226</v>
-      </c>
-      <c r="E36" s="44" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="C37" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D37" s="86" t="s">
-        <v>301</v>
-      </c>
-      <c r="E37" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="B38" s="29" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D38" s="85" t="s">
-        <v>272</v>
-      </c>
-      <c r="E38" s="50" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="65" t="s">
-        <v>187</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C39" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="D39" s="85" t="s">
-        <v>303</v>
-      </c>
-      <c r="E39" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C40" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="D40" s="85" t="s">
-        <v>286</v>
-      </c>
-      <c r="E40" s="45" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" s="74" t="s">
-        <v>188</v>
-      </c>
-      <c r="B41" s="75" t="s">
-        <v>139</v>
-      </c>
-      <c r="C41" s="76"/>
-      <c r="D41" s="85" t="s">
-        <v>287</v>
-      </c>
-      <c r="E41" s="44" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="74" t="s">
-        <v>189</v>
-      </c>
-      <c r="B42" s="75" t="s">
-        <v>138</v>
-      </c>
-      <c r="D42" s="85" t="s">
-        <v>288</v>
-      </c>
-      <c r="E42" s="44" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" s="74"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="76" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" s="85" t="s">
-        <v>299</v>
-      </c>
-      <c r="E43" s="52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B44" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C44" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="D44" s="85" t="s">
-        <v>281</v>
-      </c>
-      <c r="E44" s="52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="C45" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="D45" s="85" t="s">
-        <v>262</v>
-      </c>
-      <c r="E45" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A46" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B46" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C46" s="32" t="s">
-        <v>192</v>
-      </c>
-      <c r="D46" s="85" t="s">
-        <v>289</v>
-      </c>
-      <c r="E46" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="74" t="s">
-        <v>193</v>
-      </c>
-      <c r="B47" s="75" t="s">
-        <v>194</v>
-      </c>
-      <c r="C47" s="76" t="s">
-        <v>195</v>
-      </c>
-      <c r="D47" s="86" t="s">
-        <v>225</v>
-      </c>
-      <c r="E47" s="44" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="58" t="s">
-        <v>196</v>
-      </c>
-      <c r="B48" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D48" s="85" t="s">
-        <v>255</v>
-      </c>
-      <c r="E48" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="B49" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C49" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D49" s="85" t="s">
-        <v>270</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="58" t="s">
-        <v>198</v>
-      </c>
-      <c r="B50" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C50" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D50" s="85" t="s">
-        <v>226</v>
-      </c>
-      <c r="E50" s="44" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51" s="85" t="s">
-        <v>263</v>
-      </c>
-      <c r="E51" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>199</v>
-      </c>
-      <c r="C52" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D52" s="85" t="s">
-        <v>274</v>
-      </c>
-      <c r="E52" s="44" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" s="67" t="s">
-        <v>247</v>
-      </c>
-      <c r="B53" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C53" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D53" s="85" t="s">
-        <v>301</v>
-      </c>
-      <c r="E53" s="48" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="67" t="s">
-        <v>248</v>
-      </c>
-      <c r="B54" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C54" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="D54" s="85" t="s">
-        <v>272</v>
-      </c>
-      <c r="E54" s="44" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="67" t="s">
-        <v>249</v>
-      </c>
-      <c r="B55" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C55" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="D55" s="85" t="s">
-        <v>303</v>
-      </c>
-      <c r="E55" s="52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="B56" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C56" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D56" s="85" t="s">
-        <v>304</v>
-      </c>
-      <c r="E56" s="52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="58" t="s">
-        <v>200</v>
-      </c>
-      <c r="B57" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C57" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D57" s="85" t="s">
-        <v>290</v>
-      </c>
-      <c r="E57" s="52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A58" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="B58" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="C58" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="D58" s="85" t="s">
-        <v>224</v>
-      </c>
-      <c r="E58" s="44" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A59" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="B59" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C59" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D59" s="85" t="s">
-        <v>291</v>
-      </c>
-      <c r="E59" s="44" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A60" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="B60" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C60" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D60" s="85" t="s">
-        <v>292</v>
-      </c>
-      <c r="E60" s="44" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A61" s="22" t="s">
-        <v>203</v>
-      </c>
-      <c r="B61" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C61" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D61" s="85" t="s">
-        <v>293</v>
-      </c>
-      <c r="E61" s="52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="22" t="s">
-        <v>204</v>
-      </c>
-      <c r="B62" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C62" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="D62" s="85" t="s">
-        <v>294</v>
-      </c>
-      <c r="E62" s="44" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A63" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B63" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C63" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D63" s="85" t="s">
-        <v>295</v>
-      </c>
-      <c r="E63" s="52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B64" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C64" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="D64" s="85" t="s">
-        <v>305</v>
-      </c>
-      <c r="E64" s="52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="24" t="s">
-        <v>207</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C65" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D65" s="85" t="s">
-        <v>301</v>
-      </c>
-      <c r="E65" s="52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="24" t="s">
-        <v>208</v>
-      </c>
-      <c r="B66" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C66" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D66" s="85" t="s">
-        <v>272</v>
-      </c>
-      <c r="E66" s="44" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A67" s="24" t="s">
-        <v>209</v>
-      </c>
-      <c r="B67" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C67" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D67" s="85" t="s">
-        <v>303</v>
-      </c>
-      <c r="E67" s="52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="22" t="s">
-        <v>210</v>
-      </c>
-      <c r="B68" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C68" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D68" s="85" t="s">
-        <v>225</v>
-      </c>
-      <c r="E68" s="44" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="22" t="s">
-        <v>211</v>
-      </c>
-      <c r="B69" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C69" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D69" s="85" t="s">
-        <v>270</v>
-      </c>
-      <c r="E69" s="52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A70" s="24" t="s">
-        <v>212</v>
-      </c>
-      <c r="B70" s="19" t="s">
-        <v>161</v>
-      </c>
-      <c r="C70" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D70" s="85" t="s">
-        <v>226</v>
-      </c>
-      <c r="E70" s="44" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="25" t="s">
-        <v>213</v>
-      </c>
-      <c r="B71" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C71" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="D71" s="85" t="s">
-        <v>255</v>
-      </c>
-      <c r="E71" s="52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B72" s="68" t="s">
+      <c r="D69" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E69" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="F69" s="86"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="C72" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D72" s="68" t="s">
+      <c r="B70" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" s="90" t="s">
         <v>70</v>
       </c>
-      <c r="E72" s="52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B73" s="69" t="s">
+      <c r="E70" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="F70" s="86"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="C73" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D73" s="69" t="s">
+      <c r="B71" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="86" t="s">
         <v>214</v>
       </c>
-      <c r="E73" s="52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A74" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B74" s="69" t="s">
+      <c r="E71" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F71" s="86"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="C74" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D74" s="69" t="s">
+      <c r="B72" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" s="86" t="s">
         <v>215</v>
       </c>
-      <c r="E74" s="52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B75" s="69" t="s">
+      <c r="E72" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F72" s="86"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="C75" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D75" s="69" t="s">
+      <c r="B73" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" s="86" t="s">
         <v>216</v>
       </c>
-      <c r="E75" s="52" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="23" t="s">
-        <v>161</v>
-      </c>
-      <c r="B76" s="69" t="s">
+      <c r="E73" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F73" s="86"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="C76" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="D76" s="69" t="s">
+      <c r="B74" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C74" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="86" t="s">
         <v>217</v>
       </c>
-      <c r="E76" s="53" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="70"/>
-      <c r="B77" s="71" t="s">
+      <c r="E74" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="86"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="86" t="s">
         <v>218</v>
       </c>
-      <c r="C77" s="41" t="s">
-        <v>161</v>
-      </c>
-      <c r="D77" s="71" t="s">
+      <c r="B75" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="87"/>
+      <c r="D75" s="86" t="s">
         <v>218</v>
       </c>
-      <c r="E77" s="53" t="s">
-        <v>161</v>
-      </c>
+      <c r="E75" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="F75" s="86"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="40"/>
+      <c r="B76" s="40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac138120\Documents\projects\dt_language_comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E54C4F5-FFD3-4FA4-8FB1-639404FEFADC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463BE5E2-3BA3-4971-831F-CA323DCDFFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2115" yWindow="0" windowWidth="24270" windowHeight="13140" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -60781,8 +60781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81660679-4C16-4328-828C-2DD56627BD9C}">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac138120\Documents\projects\dt_language_comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463BE5E2-3BA3-4971-831F-CA323DCDFFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721C1810-D5B0-4136-92E9-B8DCF442CCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2115" yWindow="0" windowWidth="24270" windowHeight="13140" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,17 @@
     <sheet name="Übermenge" sheetId="7" r:id="rId6"/>
     <sheet name="Tabelle1" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7miVdERdE8BqWk121R2wlFIjK3rbPw=="/>
     </ext>
@@ -31,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1111" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="337">
   <si>
     <t>Vergleichskriterien/Features</t>
   </si>
@@ -855,12 +864,6 @@
     <t>extension</t>
   </si>
   <si>
-    <t>entities</t>
-  </si>
-  <si>
-    <t>enums</t>
-  </si>
-  <si>
     <t>isExternalId</t>
   </si>
   <si>
@@ -972,9 +975,6 @@
     <t>writable=false</t>
   </si>
   <si>
-    <t>readOnly=false</t>
-  </si>
-  <si>
     <t>FunctionBlock.event</t>
   </si>
   <si>
@@ -1045,6 +1045,12 @@
   </si>
   <si>
     <t>DataType.Relationship</t>
+  </si>
+  <si>
+    <t>enum</t>
+  </si>
+  <si>
+    <t>entity</t>
   </si>
 </sst>
 </file>
@@ -5755,8 +5761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:Z997"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -60782,7 +60788,7 @@
   <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -60796,19 +60802,19 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="112" t="s">
+        <v>300</v>
+      </c>
+      <c r="B1" s="113" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="114" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="D1" s="114" t="s">
         <v>303</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="E1" s="114" t="s">
         <v>304</v>
-      </c>
-      <c r="D1" s="114" t="s">
-        <v>305</v>
-      </c>
-      <c r="E1" s="114" t="s">
-        <v>306</v>
       </c>
       <c r="F1" s="86"/>
     </row>
@@ -60897,14 +60903,14 @@
       <c r="D6" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="87" t="s">
-        <v>309</v>
+      <c r="E6" s="88" t="s">
+        <v>23</v>
       </c>
       <c r="F6" s="86"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="84" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B7" s="100" t="s">
         <v>227</v>
@@ -60913,7 +60919,7 @@
         <v>124</v>
       </c>
       <c r="D7" s="87" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E7" s="88" t="s">
         <v>23</v>
@@ -60925,7 +60931,7 @@
         <v>271</v>
       </c>
       <c r="B8" s="100" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C8" s="87" t="s">
         <v>126</v>
@@ -60940,7 +60946,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="84" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B9" s="99" t="s">
         <v>23</v>
@@ -60949,7 +60955,7 @@
         <v>128</v>
       </c>
       <c r="D9" s="87" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E9" s="88" t="s">
         <v>23</v>
@@ -60969,8 +60975,8 @@
       <c r="D10" s="87" t="s">
         <v>272</v>
       </c>
-      <c r="E10" s="88" t="s">
-        <v>23</v>
+      <c r="E10" s="87" t="s">
+        <v>307</v>
       </c>
       <c r="F10" s="86"/>
     </row>
@@ -61003,23 +61009,23 @@
         <v>267</v>
       </c>
       <c r="D12" s="87" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E12" s="87" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F12" s="86"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="84" t="s">
-        <v>274</v>
+        <v>336</v>
       </c>
       <c r="B13" s="99" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="87"/>
       <c r="D13" s="87" t="s">
-        <v>274</v>
+        <v>336</v>
       </c>
       <c r="E13" s="88" t="s">
         <v>23</v>
@@ -61028,14 +61034,14 @@
     </row>
     <row r="14" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="106" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="B14" s="101" t="s">
-        <v>23</v>
+        <v>335</v>
       </c>
       <c r="C14" s="92"/>
       <c r="D14" s="92" t="s">
-        <v>275</v>
+        <v>335</v>
       </c>
       <c r="E14" s="93" t="s">
         <v>23</v>
@@ -61062,13 +61068,13 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="108" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B16" s="103" t="s">
         <v>240</v>
       </c>
       <c r="C16" s="87" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D16" s="87" t="s">
         <v>111</v>
@@ -61080,7 +61086,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="84" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B17" s="99" t="s">
         <v>23</v>
@@ -61100,17 +61106,15 @@
       <c r="A18" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="103" t="s">
-        <v>313</v>
-      </c>
+      <c r="B18" s="103"/>
       <c r="C18" s="87" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="87" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E18" s="87" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F18" s="86"/>
     </row>
@@ -61134,7 +61138,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="86" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B20" s="99" t="s">
         <v>23</v>
@@ -61146,13 +61150,13 @@
         <v>23</v>
       </c>
       <c r="E20" s="89" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F20" s="86"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="86" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B21" s="99" t="s">
         <v>23</v>
@@ -61164,7 +61168,7 @@
         <v>23</v>
       </c>
       <c r="E21" s="89" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F21" s="86"/>
     </row>
@@ -61179,10 +61183,10 @@
         <v>23</v>
       </c>
       <c r="D22" s="87" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E22" s="87" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F22" s="86"/>
     </row>
@@ -61206,7 +61210,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="86" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B24" s="99" t="s">
         <v>23</v>
@@ -61218,25 +61222,25 @@
         <v>23</v>
       </c>
       <c r="E24" s="87" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="F24" s="86"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="84" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B25" s="99" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="87" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D25" s="87" t="s">
         <v>222</v>
       </c>
       <c r="E25" s="87" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F25" s="86"/>
     </row>
@@ -61260,7 +61264,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="86" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B27" s="98" t="s">
         <v>233</v>
@@ -61269,7 +61273,7 @@
         <v>23</v>
       </c>
       <c r="D27" s="87" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E27" s="88" t="s">
         <v>23</v>
@@ -61278,7 +61282,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="86" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B28" s="98" t="s">
         <v>236</v>
@@ -61287,7 +61291,7 @@
         <v>23</v>
       </c>
       <c r="D28" s="87" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E28" s="88" t="s">
         <v>23</v>
@@ -61305,7 +61309,7 @@
         <v>23</v>
       </c>
       <c r="D29" s="87" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="E29" s="88" t="s">
         <v>23</v>
@@ -61314,7 +61318,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="86" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B30" s="98" t="s">
         <v>240</v>
@@ -61323,7 +61327,7 @@
         <v>23</v>
       </c>
       <c r="D30" s="87" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E30" s="88" t="s">
         <v>23</v>
@@ -61332,19 +61336,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="86" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B31" s="99" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="87" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D31" s="88" t="s">
         <v>238</v>
       </c>
       <c r="E31" s="87" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F31" s="86"/>
     </row>
@@ -61362,7 +61366,7 @@
         <v>270</v>
       </c>
       <c r="E32" s="87" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F32" s="86"/>
     </row>
@@ -61370,8 +61374,8 @@
       <c r="A33" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="B33" s="98" t="s">
-        <v>225</v>
+      <c r="B33" s="99" t="s">
+        <v>23</v>
       </c>
       <c r="C33" s="87" t="s">
         <v>269</v>
@@ -61404,7 +61408,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="84" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B35" s="99" t="s">
         <v>23</v>
@@ -61413,7 +61417,7 @@
         <v>124</v>
       </c>
       <c r="D35" s="87" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E35" s="88" t="s">
         <v>23</v>
@@ -61440,7 +61444,7 @@
     </row>
     <row r="37" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="94" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B37" s="101" t="s">
         <v>23</v>
@@ -61449,7 +61453,7 @@
         <v>128</v>
       </c>
       <c r="D37" s="92" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E37" s="93" t="s">
         <v>23</v>
@@ -61458,7 +61462,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="97" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B38" s="104" t="s">
         <v>25</v>
@@ -61476,16 +61480,16 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="86" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B39" s="98" t="s">
         <v>245</v>
       </c>
       <c r="C39" s="87" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D39" s="87" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E39" s="88" t="s">
         <v>23</v>
@@ -61494,16 +61498,16 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="86" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B40" s="98" t="s">
         <v>246</v>
       </c>
       <c r="C40" s="87" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D40" s="87" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E40" s="88" t="s">
         <v>23</v>
@@ -61512,7 +61516,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="86" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B41" s="99" t="s">
         <v>23</v>
@@ -61524,13 +61528,13 @@
         <v>23</v>
       </c>
       <c r="E41" s="87" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F41" s="86"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B42" s="99" t="s">
         <v>23</v>
@@ -61542,7 +61546,7 @@
         <v>23</v>
       </c>
       <c r="E42" s="87" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="F42" s="86"/>
     </row>
@@ -61557,7 +61561,7 @@
         <v>23</v>
       </c>
       <c r="D43" s="87" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="E43" s="88" t="s">
         <v>23</v>
@@ -61566,7 +61570,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="86" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B44" s="99" t="s">
         <v>23</v>
@@ -61578,7 +61582,7 @@
         <v>23</v>
       </c>
       <c r="E44" s="87" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F44" s="86"/>
     </row>
@@ -61665,7 +61669,7 @@
         <v>23</v>
       </c>
       <c r="D49" s="87" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E49" s="88" t="s">
         <v>23</v>
@@ -61692,7 +61696,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="86" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B51" s="99" t="s">
         <v>23</v>
@@ -61728,13 +61732,13 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="86" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B53" s="99" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="87" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D53" s="88" t="s">
         <v>23</v>
@@ -61746,7 +61750,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="86" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B54" s="99" t="s">
         <v>23</v>
@@ -61764,7 +61768,7 @@
     </row>
     <row r="55" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="94" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B55" s="101" t="s">
         <v>23</v>
@@ -61794,19 +61798,19 @@
         <v>23</v>
       </c>
       <c r="E56" s="97" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F56" s="86"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="86" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B57" s="98" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C57" s="86" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D57" s="88" t="s">
         <v>23</v>
@@ -61818,13 +61822,13 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="86" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B58" s="98" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C58" s="86" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D58" s="88" t="s">
         <v>23</v>
@@ -61836,13 +61840,13 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="86" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B59" s="99" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="86" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D59" s="88" t="s">
         <v>23</v>
@@ -61854,31 +61858,31 @@
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="86" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B60" s="98" t="s">
         <v>253</v>
       </c>
       <c r="C60" s="86" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D60" s="88" t="s">
         <v>23</v>
       </c>
       <c r="E60" s="86" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F60" s="86"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="86" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B61" s="99" t="s">
         <v>23</v>
       </c>
       <c r="C61" s="86" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D61" s="88" t="s">
         <v>23</v>
@@ -61890,7 +61894,7 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="86" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B62" s="99" t="s">
         <v>23</v>
@@ -61902,13 +61906,13 @@
         <v>23</v>
       </c>
       <c r="E62" s="86" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F62" s="86"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="86" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B63" s="99" t="s">
         <v>23</v>
@@ -61944,7 +61948,7 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="86" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B65" s="99" t="s">
         <v>23</v>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac138120\Documents\projects\dt_language_comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721C1810-D5B0-4136-92E9-B8DCF442CCA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8D2028-D7C3-49B3-8D2D-B4962F87F92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="338">
   <si>
     <t>Vergleichskriterien/Features</t>
   </si>
@@ -1051,6 +1051,9 @@
   </si>
   <si>
     <t>entity</t>
+  </si>
+  <si>
+    <t>Composition</t>
   </si>
 </sst>
 </file>
@@ -60787,8 +60790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81660679-4C16-4328-828C-2DD56627BD9C}">
   <dimension ref="A1:F76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C71" sqref="C71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -62038,7 +62041,7 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="90" t="s">
-        <v>70</v>
+        <v>337</v>
       </c>
       <c r="B70" s="105" t="s">
         <v>23</v>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac138120\Documents\projects\dt_language_comparison\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Papers\ECMFA_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC8D2028-D7C3-49B3-8D2D-B4962F87F92F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B17188F-798E-433B-9F49-6AFE1BDE04E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="17520" windowHeight="12600" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1110" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="340">
   <si>
     <t>Vergleichskriterien/Features</t>
   </si>
@@ -1055,6 +1055,12 @@
   <si>
     <t>Composition</t>
   </si>
+  <si>
+    <t>Association[isComposition=true]</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
 </sst>
 </file>
 
@@ -1171,7 +1177,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -1560,11 +1566,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1713,10 +1732,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1748,9 +1763,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1762,6 +1774,33 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -60788,53 +60827,53 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81660679-4C16-4328-828C-2DD56627BD9C}">
-  <dimension ref="A1:F76"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="37.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="109" t="s">
         <v>300</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="110" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="114" t="s">
+      <c r="C1" s="111" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="114" t="s">
+      <c r="D1" s="111" t="s">
         <v>303</v>
       </c>
-      <c r="E1" s="114" t="s">
+      <c r="E1" s="111" t="s">
         <v>304</v>
       </c>
       <c r="F1" s="86"/>
     </row>
     <row r="2" spans="1:6" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="106" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="110" t="s">
+      <c r="B2" s="107" t="s">
         <v>223</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="111" t="s">
+      <c r="D2" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="E2" s="111" t="s">
+      <c r="E2" s="108" t="s">
         <v>75</v>
       </c>
       <c r="F2" s="86"/>
@@ -60843,7 +60882,7 @@
       <c r="A3" s="84" t="s">
         <v>225</v>
       </c>
-      <c r="B3" s="98" t="s">
+      <c r="B3" s="96" t="s">
         <v>225</v>
       </c>
       <c r="C3" s="87" t="s">
@@ -60861,7 +60900,7 @@
       <c r="A4" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C4" s="87" t="s">
@@ -60879,7 +60918,7 @@
       <c r="A5" s="84" t="s">
         <v>255</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="96" t="s">
         <v>255</v>
       </c>
       <c r="C5" s="87" t="s">
@@ -60897,7 +60936,7 @@
       <c r="A6" s="86" t="s">
         <v>226</v>
       </c>
-      <c r="B6" s="100" t="s">
+      <c r="B6" s="98" t="s">
         <v>226</v>
       </c>
       <c r="C6" s="87" t="s">
@@ -60915,7 +60954,7 @@
       <c r="A7" s="84" t="s">
         <v>296</v>
       </c>
-      <c r="B7" s="100" t="s">
+      <c r="B7" s="98" t="s">
         <v>227</v>
       </c>
       <c r="C7" s="87" t="s">
@@ -60933,7 +60972,7 @@
       <c r="A8" s="86" t="s">
         <v>271</v>
       </c>
-      <c r="B8" s="100" t="s">
+      <c r="B8" s="98" t="s">
         <v>305</v>
       </c>
       <c r="C8" s="87" t="s">
@@ -60951,7 +60990,7 @@
       <c r="A9" s="84" t="s">
         <v>297</v>
       </c>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="87" t="s">
@@ -60969,7 +61008,7 @@
       <c r="A10" s="86" t="s">
         <v>272</v>
       </c>
-      <c r="B10" s="99" t="s">
+      <c r="B10" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C10" s="88" t="s">
@@ -60987,7 +61026,7 @@
       <c r="A11" s="84" t="s">
         <v>258</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="88" t="s">
@@ -61005,7 +61044,7 @@
       <c r="A12" s="84" t="s">
         <v>273</v>
       </c>
-      <c r="B12" s="100" t="s">
+      <c r="B12" s="98" t="s">
         <v>242</v>
       </c>
       <c r="C12" s="87" t="s">
@@ -61023,7 +61062,7 @@
       <c r="A13" s="84" t="s">
         <v>336</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="87"/>
@@ -61036,44 +61075,44 @@
       <c r="F13" s="86"/>
     </row>
     <row r="14" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="106" t="s">
+      <c r="A14" s="103" t="s">
         <v>335</v>
       </c>
-      <c r="B14" s="101" t="s">
+      <c r="B14" s="99" t="s">
         <v>335</v>
       </c>
-      <c r="C14" s="92"/>
-      <c r="D14" s="92" t="s">
+      <c r="C14" s="90"/>
+      <c r="D14" s="90" t="s">
         <v>335</v>
       </c>
-      <c r="E14" s="93" t="s">
+      <c r="E14" s="91" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="86"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="107" t="s">
+      <c r="A15" s="104" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="102" t="s">
+      <c r="B15" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="95" t="s">
+      <c r="D15" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="E15" s="95" t="s">
+      <c r="E15" s="93" t="s">
         <v>148</v>
       </c>
       <c r="F15" s="86"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="108" t="s">
+      <c r="A16" s="105" t="s">
         <v>293</v>
       </c>
-      <c r="B16" s="103" t="s">
+      <c r="B16" s="101" t="s">
         <v>240</v>
       </c>
       <c r="C16" s="87" t="s">
@@ -61091,7 +61130,7 @@
       <c r="A17" s="84" t="s">
         <v>294</v>
       </c>
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="88" t="s">
@@ -61109,7 +61148,7 @@
       <c r="A18" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="103"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="87" t="s">
         <v>61</v>
       </c>
@@ -61125,7 +61164,7 @@
       <c r="A19" s="84" t="s">
         <v>225</v>
       </c>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="98" t="s">
         <v>225</v>
       </c>
       <c r="C19" s="87" t="s">
@@ -61143,7 +61182,7 @@
       <c r="A20" s="86" t="s">
         <v>274</v>
       </c>
-      <c r="B20" s="99" t="s">
+      <c r="B20" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="88" t="s">
@@ -61161,7 +61200,7 @@
       <c r="A21" s="86" t="s">
         <v>275</v>
       </c>
-      <c r="B21" s="99" t="s">
+      <c r="B21" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C21" s="88" t="s">
@@ -61179,7 +61218,7 @@
       <c r="A22" s="86" t="s">
         <v>262</v>
       </c>
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="88" t="s">
@@ -61197,7 +61236,7 @@
       <c r="A23" s="86" t="s">
         <v>232</v>
       </c>
-      <c r="B23" s="98" t="s">
+      <c r="B23" s="96" t="s">
         <v>232</v>
       </c>
       <c r="C23" s="88" t="s">
@@ -61215,7 +61254,7 @@
       <c r="A24" s="86" t="s">
         <v>276</v>
       </c>
-      <c r="B24" s="99" t="s">
+      <c r="B24" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C24" s="88" t="s">
@@ -61233,7 +61272,7 @@
       <c r="A25" s="84" t="s">
         <v>277</v>
       </c>
-      <c r="B25" s="99" t="s">
+      <c r="B25" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C25" s="87" t="s">
@@ -61251,7 +61290,7 @@
       <c r="A26" s="86" t="s">
         <v>255</v>
       </c>
-      <c r="B26" s="98" t="s">
+      <c r="B26" s="96" t="s">
         <v>226</v>
       </c>
       <c r="C26" s="87" t="s">
@@ -61269,7 +61308,7 @@
       <c r="A27" s="86" t="s">
         <v>279</v>
       </c>
-      <c r="B27" s="98" t="s">
+      <c r="B27" s="96" t="s">
         <v>233</v>
       </c>
       <c r="C27" s="88" t="s">
@@ -61287,7 +61326,7 @@
       <c r="A28" s="86" t="s">
         <v>281</v>
       </c>
-      <c r="B28" s="98" t="s">
+      <c r="B28" s="96" t="s">
         <v>236</v>
       </c>
       <c r="C28" s="88" t="s">
@@ -61305,7 +61344,7 @@
       <c r="A29" s="86" t="s">
         <v>273</v>
       </c>
-      <c r="B29" s="98" t="s">
+      <c r="B29" s="96" t="s">
         <v>237</v>
       </c>
       <c r="C29" s="88" t="s">
@@ -61323,7 +61362,7 @@
       <c r="A30" s="86" t="s">
         <v>282</v>
       </c>
-      <c r="B30" s="98" t="s">
+      <c r="B30" s="96" t="s">
         <v>240</v>
       </c>
       <c r="C30" s="88" t="s">
@@ -61341,7 +61380,7 @@
       <c r="A31" s="86" t="s">
         <v>280</v>
       </c>
-      <c r="B31" s="99" t="s">
+      <c r="B31" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C31" s="87" t="s">
@@ -61359,7 +61398,7 @@
       <c r="A32" s="84" t="s">
         <v>270</v>
       </c>
-      <c r="B32" s="103" t="s">
+      <c r="B32" s="101" t="s">
         <v>257</v>
       </c>
       <c r="C32" s="87" t="s">
@@ -61377,7 +61416,7 @@
       <c r="A33" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="B33" s="99" t="s">
+      <c r="B33" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C33" s="87" t="s">
@@ -61395,7 +61434,7 @@
       <c r="A34" s="86" t="s">
         <v>226</v>
       </c>
-      <c r="B34" s="98" t="s">
+      <c r="B34" s="96" t="s">
         <v>226</v>
       </c>
       <c r="C34" s="87" t="s">
@@ -61413,7 +61452,7 @@
       <c r="A35" s="84" t="s">
         <v>296</v>
       </c>
-      <c r="B35" s="99" t="s">
+      <c r="B35" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C35" s="87" t="s">
@@ -61431,7 +61470,7 @@
       <c r="A36" s="86" t="s">
         <v>271</v>
       </c>
-      <c r="B36" s="103" t="s">
+      <c r="B36" s="101" t="s">
         <v>241</v>
       </c>
       <c r="C36" s="87" t="s">
@@ -61446,37 +61485,37 @@
       <c r="F36" s="86"/>
     </row>
     <row r="37" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="92" t="s">
         <v>297</v>
       </c>
-      <c r="B37" s="101" t="s">
+      <c r="B37" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="92" t="s">
+      <c r="C37" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="D37" s="92" t="s">
+      <c r="D37" s="90" t="s">
         <v>297</v>
       </c>
-      <c r="E37" s="93" t="s">
+      <c r="E37" s="91" t="s">
         <v>23</v>
       </c>
       <c r="F37" s="86"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="97" t="s">
+      <c r="A38" s="95" t="s">
         <v>283</v>
       </c>
-      <c r="B38" s="104" t="s">
+      <c r="B38" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="C38" s="95" t="s">
+      <c r="C38" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="95" t="s">
+      <c r="D38" s="93" t="s">
         <v>25</v>
       </c>
-      <c r="E38" s="95" t="s">
+      <c r="E38" s="93" t="s">
         <v>88</v>
       </c>
       <c r="F38" s="86"/>
@@ -61485,7 +61524,7 @@
       <c r="A39" s="86" t="s">
         <v>284</v>
       </c>
-      <c r="B39" s="98" t="s">
+      <c r="B39" s="96" t="s">
         <v>245</v>
       </c>
       <c r="C39" s="87" t="s">
@@ -61503,7 +61542,7 @@
       <c r="A40" s="86" t="s">
         <v>285</v>
       </c>
-      <c r="B40" s="98" t="s">
+      <c r="B40" s="96" t="s">
         <v>246</v>
       </c>
       <c r="C40" s="87" t="s">
@@ -61521,7 +61560,7 @@
       <c r="A41" s="86" t="s">
         <v>295</v>
       </c>
-      <c r="B41" s="99" t="s">
+      <c r="B41" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C41" s="88" t="s">
@@ -61539,7 +61578,7 @@
       <c r="A42" s="86" t="s">
         <v>278</v>
       </c>
-      <c r="B42" s="99" t="s">
+      <c r="B42" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C42" s="88" t="s">
@@ -61557,7 +61596,7 @@
       <c r="A43" s="86" t="s">
         <v>262</v>
       </c>
-      <c r="B43" s="99" t="s">
+      <c r="B43" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C43" s="88" t="s">
@@ -61575,7 +61614,7 @@
       <c r="A44" s="86" t="s">
         <v>286</v>
       </c>
-      <c r="B44" s="99" t="s">
+      <c r="B44" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C44" s="88" t="s">
@@ -61593,7 +61632,7 @@
       <c r="A45" s="84" t="s">
         <v>225</v>
       </c>
-      <c r="B45" s="98" t="s">
+      <c r="B45" s="96" t="s">
         <v>225</v>
       </c>
       <c r="C45" s="87" t="s">
@@ -61611,7 +61650,7 @@
       <c r="A46" s="86" t="s">
         <v>255</v>
       </c>
-      <c r="B46" s="99" t="s">
+      <c r="B46" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C46" s="87" t="s">
@@ -61629,7 +61668,7 @@
       <c r="A47" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="B47" s="99" t="s">
+      <c r="B47" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C47" s="87" t="s">
@@ -61647,7 +61686,7 @@
       <c r="A48" s="86" t="s">
         <v>226</v>
       </c>
-      <c r="B48" s="98" t="s">
+      <c r="B48" s="96" t="s">
         <v>226</v>
       </c>
       <c r="C48" s="87" t="s">
@@ -61665,7 +61704,7 @@
       <c r="A49" s="86" t="s">
         <v>263</v>
       </c>
-      <c r="B49" s="99" t="s">
+      <c r="B49" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C49" s="88" t="s">
@@ -61683,7 +61722,7 @@
       <c r="A50" s="86" t="s">
         <v>273</v>
       </c>
-      <c r="B50" s="98" t="s">
+      <c r="B50" s="96" t="s">
         <v>244</v>
       </c>
       <c r="C50" s="88" t="s">
@@ -61701,7 +61740,7 @@
       <c r="A51" s="86" t="s">
         <v>296</v>
       </c>
-      <c r="B51" s="99" t="s">
+      <c r="B51" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C51" s="87" t="s">
@@ -61719,7 +61758,7 @@
       <c r="A52" s="86" t="s">
         <v>271</v>
       </c>
-      <c r="B52" s="98" t="s">
+      <c r="B52" s="96" t="s">
         <v>250</v>
       </c>
       <c r="C52" s="87" t="s">
@@ -61737,7 +61776,7 @@
       <c r="A53" s="86" t="s">
         <v>297</v>
       </c>
-      <c r="B53" s="99" t="s">
+      <c r="B53" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="87" t="s">
@@ -61755,7 +61794,7 @@
       <c r="A54" s="86" t="s">
         <v>298</v>
       </c>
-      <c r="B54" s="99" t="s">
+      <c r="B54" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C54" s="87" t="s">
@@ -61770,37 +61809,37 @@
       <c r="F54" s="86"/>
     </row>
     <row r="55" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="94" t="s">
+      <c r="A55" s="92" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="101" t="s">
+      <c r="B55" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="C55" s="92" t="s">
+      <c r="C55" s="90" t="s">
         <v>200</v>
       </c>
-      <c r="D55" s="93" t="s">
+      <c r="D55" s="91" t="s">
         <v>23</v>
       </c>
-      <c r="E55" s="93" t="s">
+      <c r="E55" s="91" t="s">
         <v>23</v>
       </c>
       <c r="F55" s="86"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="97" t="s">
+      <c r="A56" s="95" t="s">
         <v>224</v>
       </c>
-      <c r="B56" s="104" t="s">
+      <c r="B56" s="102" t="s">
         <v>224</v>
       </c>
-      <c r="C56" s="95" t="s">
+      <c r="C56" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="D56" s="96" t="s">
+      <c r="D56" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="E56" s="97" t="s">
+      <c r="E56" s="95" t="s">
         <v>334</v>
       </c>
       <c r="F56" s="86"/>
@@ -61809,7 +61848,7 @@
       <c r="A57" s="86" t="s">
         <v>288</v>
       </c>
-      <c r="B57" s="98" t="s">
+      <c r="B57" s="96" t="s">
         <v>331</v>
       </c>
       <c r="C57" s="86" t="s">
@@ -61827,7 +61866,7 @@
       <c r="A58" s="86" t="s">
         <v>289</v>
       </c>
-      <c r="B58" s="98" t="s">
+      <c r="B58" s="96" t="s">
         <v>332</v>
       </c>
       <c r="C58" s="86" t="s">
@@ -61845,7 +61884,7 @@
       <c r="A59" s="86" t="s">
         <v>290</v>
       </c>
-      <c r="B59" s="99" t="s">
+      <c r="B59" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="86" t="s">
@@ -61863,7 +61902,7 @@
       <c r="A60" s="86" t="s">
         <v>291</v>
       </c>
-      <c r="B60" s="98" t="s">
+      <c r="B60" s="96" t="s">
         <v>253</v>
       </c>
       <c r="C60" s="86" t="s">
@@ -61881,7 +61920,7 @@
       <c r="A61" s="86" t="s">
         <v>292</v>
       </c>
-      <c r="B61" s="99" t="s">
+      <c r="B61" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C61" s="86" t="s">
@@ -61899,7 +61938,7 @@
       <c r="A62" s="86" t="s">
         <v>299</v>
       </c>
-      <c r="B62" s="99" t="s">
+      <c r="B62" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C62" s="88" t="s">
@@ -61917,7 +61956,7 @@
       <c r="A63" s="86" t="s">
         <v>296</v>
       </c>
-      <c r="B63" s="99" t="s">
+      <c r="B63" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C63" s="86" t="s">
@@ -61935,7 +61974,7 @@
       <c r="A64" s="86" t="s">
         <v>271</v>
       </c>
-      <c r="B64" s="98" t="s">
+      <c r="B64" s="96" t="s">
         <v>250</v>
       </c>
       <c r="C64" s="86" t="s">
@@ -61953,7 +61992,7 @@
       <c r="A65" s="86" t="s">
         <v>297</v>
       </c>
-      <c r="B65" s="99" t="s">
+      <c r="B65" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C65" s="86" t="s">
@@ -61971,7 +62010,7 @@
       <c r="A66" s="86" t="s">
         <v>225</v>
       </c>
-      <c r="B66" s="98" t="s">
+      <c r="B66" s="96" t="s">
         <v>225</v>
       </c>
       <c r="C66" s="86" t="s">
@@ -61989,7 +62028,7 @@
       <c r="A67" s="86" t="s">
         <v>269</v>
       </c>
-      <c r="B67" s="99" t="s">
+      <c r="B67" s="97" t="s">
         <v>23</v>
       </c>
       <c r="C67" s="86" t="s">
@@ -62007,7 +62046,7 @@
       <c r="A68" s="86" t="s">
         <v>226</v>
       </c>
-      <c r="B68" s="98" t="s">
+      <c r="B68" s="96" t="s">
         <v>254</v>
       </c>
       <c r="C68" s="86" t="s">
@@ -62022,132 +62061,183 @@
       <c r="F68" s="86"/>
     </row>
     <row r="69" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="94" t="s">
+      <c r="A69" s="86" t="s">
         <v>255</v>
       </c>
-      <c r="B69" s="101" t="s">
+      <c r="B69" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="C69" s="94" t="s">
+      <c r="C69" s="86" t="s">
         <v>255</v>
       </c>
-      <c r="D69" s="93" t="s">
+      <c r="D69" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="E69" s="93" t="s">
+      <c r="E69" s="88" t="s">
         <v>23</v>
       </c>
       <c r="F69" s="86"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="90" t="s">
+      <c r="A70" s="122" t="s">
         <v>337</v>
       </c>
-      <c r="B70" s="105" t="s">
+      <c r="B70" s="94" t="s">
+        <v>338</v>
+      </c>
+      <c r="C70" s="123" t="s">
+        <v>58</v>
+      </c>
+      <c r="D70" s="93" t="s">
+        <v>214</v>
+      </c>
+      <c r="E70" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="C70" s="91" t="s">
+      <c r="F70" s="86"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="113" t="s">
+        <v>262</v>
+      </c>
+      <c r="B71" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="D70" s="90" t="s">
-        <v>70</v>
-      </c>
-      <c r="E70" s="91" t="s">
+      <c r="C71" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="F70" s="86"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="86" t="s">
-        <v>214</v>
-      </c>
-      <c r="B71" s="99" t="s">
+      <c r="D71" s="86" t="s">
+        <v>313</v>
+      </c>
+      <c r="E71" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="C71" s="88" t="s">
+      <c r="F71" s="86"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="113" t="s">
+        <v>339</v>
+      </c>
+      <c r="B72" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="D71" s="86" t="s">
-        <v>214</v>
-      </c>
-      <c r="E71" s="88" t="s">
+      <c r="C72" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="F71" s="86"/>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="86" t="s">
-        <v>215</v>
-      </c>
-      <c r="B72" s="99" t="s">
+      <c r="D72" s="86" t="s">
+        <v>339</v>
+      </c>
+      <c r="E72" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="88" t="s">
+      <c r="F72" s="86"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="113" t="s">
+        <v>225</v>
+      </c>
+      <c r="B73" s="112" t="s">
+        <v>225</v>
+      </c>
+      <c r="C73" s="117" t="s">
+        <v>225</v>
+      </c>
+      <c r="D73" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="E73" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="D72" s="86" t="s">
-        <v>215</v>
-      </c>
-      <c r="E72" s="88" t="s">
+      <c r="F73" s="86"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="113" t="s">
+        <v>255</v>
+      </c>
+      <c r="B74" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="F72" s="86"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="B73" s="99" t="s">
+      <c r="C74" s="118" t="s">
+        <v>255</v>
+      </c>
+      <c r="D74" s="86" t="s">
+        <v>255</v>
+      </c>
+      <c r="E74" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="C73" s="88" t="s">
+      <c r="F74" s="86"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="113" t="s">
+        <v>296</v>
+      </c>
+      <c r="B75" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="D73" s="86" t="s">
-        <v>216</v>
-      </c>
-      <c r="E73" s="88" t="s">
+      <c r="C75" s="113" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="F73" s="86"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="86" t="s">
-        <v>217</v>
-      </c>
-      <c r="B74" s="99" t="s">
+      <c r="E75" s="119"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="113" t="s">
+        <v>271</v>
+      </c>
+      <c r="B76" s="112" t="s">
+        <v>250</v>
+      </c>
+      <c r="C76" s="113" t="s">
+        <v>126</v>
+      </c>
+      <c r="D76" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="C74" s="88" t="s">
+      <c r="E76" s="119"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="113" t="s">
+        <v>297</v>
+      </c>
+      <c r="B77" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="86" t="s">
-        <v>217</v>
-      </c>
-      <c r="E74" s="88" t="s">
+      <c r="C77" s="113" t="s">
+        <v>128</v>
+      </c>
+      <c r="D77" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="F74" s="86"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="86" t="s">
-        <v>218</v>
-      </c>
-      <c r="B75" s="99" t="s">
+      <c r="E77" s="119"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="113" t="s">
+        <v>269</v>
+      </c>
+      <c r="B78" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="C75" s="87"/>
-      <c r="D75" s="86" t="s">
-        <v>218</v>
-      </c>
-      <c r="E75" s="88" t="s">
-        <v>23</v>
-      </c>
-      <c r="F75" s="86"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="40"/>
-      <c r="B76" s="40"/>
+      <c r="C78" s="113" t="s">
+        <v>269</v>
+      </c>
+      <c r="D78" s="40"/>
+      <c r="E78" s="119"/>
+    </row>
+    <row r="79" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="114" t="s">
+        <v>226</v>
+      </c>
+      <c r="B79" s="115" t="s">
+        <v>254</v>
+      </c>
+      <c r="C79" s="114" t="s">
+        <v>226</v>
+      </c>
+      <c r="D79" s="120"/>
+      <c r="E79" s="121"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Papers\ECMFA_2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ac138120\Documents\projects\dt_language_comparison\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B17188F-798E-433B-9F49-6AFE1BDE04E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E83BFB2E-F143-488C-ABAA-AD141D292E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="17520" windowHeight="12600" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="16080" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabellenblatt1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1131" uniqueCount="340">
   <si>
     <t>Vergleichskriterien/Features</t>
   </si>
@@ -1583,7 +1583,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1791,9 +1791,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="36" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -60830,7 +60827,7 @@
   <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -62079,19 +62076,19 @@
       <c r="F69" s="86"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="122" t="s">
+      <c r="A70" s="119" t="s">
         <v>337</v>
       </c>
       <c r="B70" s="94" t="s">
         <v>338</v>
       </c>
-      <c r="C70" s="123" t="s">
+      <c r="C70" s="120" t="s">
         <v>58</v>
       </c>
       <c r="D70" s="93" t="s">
         <v>214</v>
       </c>
-      <c r="E70" s="124" t="s">
+      <c r="E70" s="121" t="s">
         <v>23</v>
       </c>
       <c r="F70" s="86"/>
@@ -62181,7 +62178,9 @@
       <c r="D75" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="E75" s="119"/>
+      <c r="E75" s="97" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="113" t="s">
@@ -62196,7 +62195,9 @@
       <c r="D76" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="E76" s="119"/>
+      <c r="E76" s="97" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="113" t="s">
@@ -62211,7 +62212,9 @@
       <c r="D77" s="88" t="s">
         <v>23</v>
       </c>
-      <c r="E77" s="119"/>
+      <c r="E77" s="97" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="113" t="s">
@@ -62223,8 +62226,12 @@
       <c r="C78" s="113" t="s">
         <v>269</v>
       </c>
-      <c r="D78" s="40"/>
-      <c r="E78" s="119"/>
+      <c r="D78" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="E78" s="97" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="79" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A79" s="114" t="s">
@@ -62236,8 +62243,12 @@
       <c r="C79" s="114" t="s">
         <v>226</v>
       </c>
-      <c r="D79" s="120"/>
-      <c r="E79" s="121"/>
+      <c r="D79" s="97" t="s">
+        <v>23</v>
+      </c>
+      <c r="E79" s="97" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel Lehner\Desktop\Repos\Papers\ECMFA_2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B17188F-798E-433B-9F49-6AFE1BDE04E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AFE2B4C-A9F8-419D-AF55-9D1B1F7FECEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="17520" windowHeight="12600" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="354">
   <si>
     <t>Vergleichskriterien/Features</t>
   </si>
@@ -1061,6 +1061,48 @@
   <si>
     <t>multiple</t>
   </si>
+  <si>
+    <t>abstracted from returnType + parameters</t>
+  </si>
+  <si>
+    <t>minMultiplicity &gt; 1</t>
+  </si>
+  <si>
+    <t>map to parameters.unitOfMeasurement</t>
+  </si>
+  <si>
+    <t>VersionableElement</t>
+  </si>
+  <si>
+    <t>DTClass</t>
+  </si>
+  <si>
+    <t>DTProperty.isTimeSeries</t>
+  </si>
+  <si>
+    <t>DTProperty.isFault</t>
+  </si>
+  <si>
+    <t>DTProperty</t>
+  </si>
+  <si>
+    <t>readOnly=false</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>'map to parameters.languageVErsion</t>
+  </si>
+  <si>
+    <t>Association.Properties</t>
+  </si>
+  <si>
+    <t>MemberEnd.lower&gt;1</t>
+  </si>
+  <si>
+    <t>MemberEnd.upper&gt;1</t>
+  </si>
 </sst>
 </file>
 
@@ -1157,7 +1199,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1174,6 +1216,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1583,7 +1631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="125">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1799,6 +1847,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="30" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="31" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -60829,8 +60884,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81660679-4C16-4328-828C-2DD56627BD9C}">
   <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -60901,7 +60956,7 @@
         <v>269</v>
       </c>
       <c r="B4" s="97" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="C4" s="87" t="s">
         <v>269</v>
@@ -60991,7 +61046,7 @@
         <v>297</v>
       </c>
       <c r="B9" s="97" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="C9" s="87" t="s">
         <v>128</v>
@@ -61009,7 +61064,7 @@
         <v>272</v>
       </c>
       <c r="B10" s="97" t="s">
-        <v>23</v>
+        <v>344</v>
       </c>
       <c r="C10" s="88" t="s">
         <v>23</v>
@@ -61027,7 +61082,7 @@
         <v>258</v>
       </c>
       <c r="B11" s="97" t="s">
-        <v>23</v>
+        <v>344</v>
       </c>
       <c r="C11" s="88" t="s">
         <v>23</v>
@@ -61063,7 +61118,7 @@
         <v>336</v>
       </c>
       <c r="B13" s="97" t="s">
-        <v>23</v>
+        <v>344</v>
       </c>
       <c r="C13" s="87"/>
       <c r="D13" s="87" t="s">
@@ -61131,7 +61186,7 @@
         <v>294</v>
       </c>
       <c r="B17" s="97" t="s">
-        <v>23</v>
+        <v>346</v>
       </c>
       <c r="C17" s="88" t="s">
         <v>23</v>
@@ -61148,7 +61203,9 @@
       <c r="A18" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B18" s="101"/>
+      <c r="B18" s="101" t="s">
+        <v>345</v>
+      </c>
       <c r="C18" s="87" t="s">
         <v>61</v>
       </c>
@@ -61179,11 +61236,11 @@
       <c r="F19" s="86"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="86" t="s">
+      <c r="A20" s="125" t="s">
         <v>274</v>
       </c>
       <c r="B20" s="97" t="s">
-        <v>23</v>
+        <v>347</v>
       </c>
       <c r="C20" s="88" t="s">
         <v>23</v>
@@ -61201,7 +61258,7 @@
         <v>275</v>
       </c>
       <c r="B21" s="97" t="s">
-        <v>23</v>
+        <v>347</v>
       </c>
       <c r="C21" s="88" t="s">
         <v>23</v>
@@ -61219,7 +61276,7 @@
         <v>262</v>
       </c>
       <c r="B22" s="97" t="s">
-        <v>23</v>
+        <v>341</v>
       </c>
       <c r="C22" s="88" t="s">
         <v>23</v>
@@ -61255,7 +61312,7 @@
         <v>276</v>
       </c>
       <c r="B24" s="97" t="s">
-        <v>23</v>
+        <v>348</v>
       </c>
       <c r="C24" s="88" t="s">
         <v>23</v>
@@ -61273,7 +61330,7 @@
         <v>277</v>
       </c>
       <c r="B25" s="97" t="s">
-        <v>23</v>
+        <v>349</v>
       </c>
       <c r="C25" s="87" t="s">
         <v>317</v>
@@ -61291,7 +61348,7 @@
         <v>255</v>
       </c>
       <c r="B26" s="96" t="s">
-        <v>226</v>
+        <v>343</v>
       </c>
       <c r="C26" s="87" t="s">
         <v>255</v>
@@ -61341,7 +61398,7 @@
       <c r="F28" s="86"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="86" t="s">
+      <c r="A29" s="125" t="s">
         <v>273</v>
       </c>
       <c r="B29" s="96" t="s">
@@ -61381,7 +61438,7 @@
         <v>280</v>
       </c>
       <c r="B31" s="97" t="s">
-        <v>23</v>
+        <v>347</v>
       </c>
       <c r="C31" s="87" t="s">
         <v>321</v>
@@ -61417,7 +61474,7 @@
         <v>269</v>
       </c>
       <c r="B33" s="97" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="C33" s="87" t="s">
         <v>269</v>
@@ -61453,7 +61510,7 @@
         <v>296</v>
       </c>
       <c r="B35" s="97" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="C35" s="87" t="s">
         <v>124</v>
@@ -61489,7 +61546,7 @@
         <v>297</v>
       </c>
       <c r="B37" s="99" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="C37" s="90" t="s">
         <v>128</v>
@@ -61560,8 +61617,8 @@
       <c r="A41" s="86" t="s">
         <v>295</v>
       </c>
-      <c r="B41" s="97" t="s">
-        <v>23</v>
+      <c r="B41" s="126" t="s">
+        <v>340</v>
       </c>
       <c r="C41" s="88" t="s">
         <v>23</v>
@@ -61596,8 +61653,8 @@
       <c r="A43" s="86" t="s">
         <v>262</v>
       </c>
-      <c r="B43" s="97" t="s">
-        <v>23</v>
+      <c r="B43" s="126" t="s">
+        <v>170</v>
       </c>
       <c r="C43" s="88" t="s">
         <v>23</v>
@@ -61615,7 +61672,7 @@
         <v>286</v>
       </c>
       <c r="B44" s="97" t="s">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="C44" s="88" t="s">
         <v>23</v>
@@ -61651,7 +61708,7 @@
         <v>255</v>
       </c>
       <c r="B46" s="97" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="C46" s="87" t="s">
         <v>270</v>
@@ -61669,7 +61726,7 @@
         <v>269</v>
       </c>
       <c r="B47" s="97" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="C47" s="87" t="s">
         <v>269</v>
@@ -61741,7 +61798,7 @@
         <v>296</v>
       </c>
       <c r="B51" s="97" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="C51" s="87" t="s">
         <v>124</v>
@@ -61777,7 +61834,7 @@
         <v>297</v>
       </c>
       <c r="B53" s="97" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="C53" s="87" t="s">
         <v>330</v>
@@ -61795,7 +61852,7 @@
         <v>298</v>
       </c>
       <c r="B54" s="97" t="s">
-        <v>23</v>
+        <v>350</v>
       </c>
       <c r="C54" s="87" t="s">
         <v>110</v>
@@ -61812,8 +61869,8 @@
       <c r="A55" s="92" t="s">
         <v>287</v>
       </c>
-      <c r="B55" s="99" t="s">
-        <v>23</v>
+      <c r="B55" s="127" t="s">
+        <v>342</v>
       </c>
       <c r="C55" s="90" t="s">
         <v>200</v>
@@ -61885,7 +61942,7 @@
         <v>290</v>
       </c>
       <c r="B59" s="97" t="s">
-        <v>23</v>
+        <v>351</v>
       </c>
       <c r="C59" s="86" t="s">
         <v>290</v>
@@ -61957,7 +62014,7 @@
         <v>296</v>
       </c>
       <c r="B63" s="97" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="C63" s="86" t="s">
         <v>124</v>
@@ -61993,7 +62050,7 @@
         <v>297</v>
       </c>
       <c r="B65" s="97" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="C65" s="86" t="s">
         <v>128</v>
@@ -62029,7 +62086,7 @@
         <v>269</v>
       </c>
       <c r="B67" s="97" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="C67" s="86" t="s">
         <v>269</v>
@@ -62065,7 +62122,7 @@
         <v>255</v>
       </c>
       <c r="B69" s="97" t="s">
-        <v>23</v>
+        <v>343</v>
       </c>
       <c r="C69" s="86" t="s">
         <v>255</v>
@@ -62101,7 +62158,7 @@
         <v>262</v>
       </c>
       <c r="B71" s="88" t="s">
-        <v>23</v>
+        <v>352</v>
       </c>
       <c r="C71" s="116" t="s">
         <v>23</v>
@@ -62119,7 +62176,7 @@
         <v>339</v>
       </c>
       <c r="B72" s="88" t="s">
-        <v>23</v>
+        <v>353</v>
       </c>
       <c r="C72" s="116" t="s">
         <v>23</v>
@@ -62154,8 +62211,8 @@
       <c r="A74" s="113" t="s">
         <v>255</v>
       </c>
-      <c r="B74" s="88" t="s">
-        <v>23</v>
+      <c r="B74" s="97" t="s">
+        <v>343</v>
       </c>
       <c r="C74" s="118" t="s">
         <v>255</v>
@@ -62172,8 +62229,8 @@
       <c r="A75" s="113" t="s">
         <v>296</v>
       </c>
-      <c r="B75" s="88" t="s">
-        <v>23</v>
+      <c r="B75" s="97" t="s">
+        <v>343</v>
       </c>
       <c r="C75" s="113" t="s">
         <v>124</v>
@@ -62202,8 +62259,8 @@
       <c r="A77" s="113" t="s">
         <v>297</v>
       </c>
-      <c r="B77" s="88" t="s">
-        <v>23</v>
+      <c r="B77" s="97" t="s">
+        <v>343</v>
       </c>
       <c r="C77" s="113" t="s">
         <v>128</v>
@@ -62217,8 +62274,8 @@
       <c r="A78" s="113" t="s">
         <v>269</v>
       </c>
-      <c r="B78" s="88" t="s">
-        <v>23</v>
+      <c r="B78" s="97" t="s">
+        <v>343</v>
       </c>
       <c r="C78" s="113" t="s">
         <v>269</v>
